--- a/biology/Médecine/Tableaux_de_maladies_professionnelles/Tableaux_de_maladies_professionnelles.xlsx
+++ b/biology/Médecine/Tableaux_de_maladies_professionnelles/Tableaux_de_maladies_professionnelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les critères à prendre en compte pour qu'une maladie soit prise en charge en France au titre de la maladie professionnelle sont définis par la sécurité sociale et regroupés sous forme de lignes et de colonnes dans un texte de synthèse couramment désigné sous le terme de Tableau de maladie professionnelle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les critères à prendre en compte pour qu'une maladie soit prise en charge en France au titre de la maladie professionnelle sont définis par la sécurité sociale et regroupés sous forme de lignes et de colonnes dans un texte de synthèse couramment désigné sous le terme de Tableau de maladie professionnelle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier tableau du régime général a été créé en 1919 (maladie professionnelle no 1 : intoxication au plomb), le dernier date de 1999 (MP no 98 : sciatique par hernie discale consécutive à des manutentions). Entretemps, certains tableaux ont été abrogés et d'autres scindés en plusieurs tableaux (no 10, 10bis, 10ter, etc.). Il existe donc actuellement 112 maladies professionnelles reconnues par le régime général de la sécurité sociale.
 Le premier tableau du régime agricole (MP no 1 : tétanos) a été créé en 1955, le dernier date de 2012 (MP no 58 : la maladie de Parkinson provoquée par les pesticides). Il existe donc actuellement 66 maladies professionnelles reconnues par le régime agricole.
@@ -543,7 +557,9 @@
           <t>Présomption d'imputabilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant la création des tableaux la victime qui voulait être indemnisée en cas de maladie professionnelle devait assigner son employeur devant les tribunaux et apporter la preuve de la responsabilité de l'entreprise.
 Or, dans de nombreux cas il est difficile au salarié d'apporter la preuve absolue qu'il existe bien une relation de cause à effet entre l'exercice de sa profession et la maladie dont il est atteint – comment prouver par exemple qu'une hernie discale est bien consécutive à des manutentions au travail et non à des efforts fournis pendant des activités de loisir ? - C'est pourquoi la législation a prévu que la charge de la preuve ne soit pas imputée à la victime.
@@ -551,16 +567,6 @@
 Le cas échéant, il appartiendra à l'organisme de sécurité sociale d'apporter la preuve que la pathologie n'est  pas d'origine professionnelle.
 Ce renversement de la charge de la preuve permet à la victime d'être prise en charge rapidement dans les cas les plus simples.
 Les critères d'imputabilité sont réparties en trois rubriques (les trois colonnes du tableau).
-Désignation des maladies
-L'intitulé exact de la maladie doit correspondre à ce qui est mentionné au tableau. Par exemple le tableau 98 mentionne dans cette rubrique : Sciatique par hernie discale. Si la victime présente une hernie discale prouvée par des examens radiologiques mais pas de sciatique, la pathologie constatée n'entre pas dans le cadre du tableau.
-Dans de nombreux cas, il est précisé que la maladie doit être confirmée par des examens complémentaires : tests épicutanés pour les eczémas allergiques, dosages sanguins du produit toxique en cause (plomb, arsenic…), radiographie, etc.
-Délai de prise en charge
-C'est le délai maximal entre la cessation d'exposition au risque supposé à l'origine de la maladie et la constatation de celle-ci, pour que l'origine professionnelle soit reconnue. Il peut être de quelques jours (7 jours pour les manifestations cutanées allergiques) ou de plusieurs dizaines d'années pour certaines pathologies qui se déclarent tardivement après l'exposition au risque (30, 40 ou 50 ans pour certains cancers professionnels).
-Dans certains cas, il est prévu une durée minimale d'exposition au risque (en général 5 ans) pour que joue la présomption d'origine. Par exemple, pour un salarié qui présente un cancer bronchique et qui a été exposé 5 ans à l'amiante verra sa maladie automatiquement reconnue comme professionnelle. Dans le cas contraire, le dossier sera rejeté au premier examen.
-Liste des travaux susceptibles de provoquer ces maladies
-Dans la troisième colonne du tableau sont mentionnées les activités professionnelles qui peuvent exposer aux agents chimiques, physiques ou biologiques en cause dans l'affection mentionnée.
-Le plus souvent il s'agit d'une liste indicative qui n'est pas opposable au salarié, mais dans certaines pathologies particulières la liste est limitative, auquel cas le dossier est rejeté si l'activité professionnelle du salarié n'est pas expressément mentionnée au tableau.
-Si ces critères très restrictifs ne sont pas respectés ou si la maladie n'est pas inscrite à un tableau, la reconnaissance du caractère professionnel de la maladie sera subordonnée à l'avis d'un Comité Régional de Reconnaissance des Maladies Professionnelles (CRRMP).
 </t>
         </is>
       </c>
@@ -586,10 +592,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Présomption d'imputabilité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Désignation des maladies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intitulé exact de la maladie doit correspondre à ce qui est mentionné au tableau. Par exemple le tableau 98 mentionne dans cette rubrique : Sciatique par hernie discale. Si la victime présente une hernie discale prouvée par des examens radiologiques mais pas de sciatique, la pathologie constatée n'entre pas dans le cadre du tableau.
+Dans de nombreux cas, il est précisé que la maladie doit être confirmée par des examens complémentaires : tests épicutanés pour les eczémas allergiques, dosages sanguins du produit toxique en cause (plomb, arsenic…), radiographie, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présomption d'imputabilité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Délai de prise en charge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le délai maximal entre la cessation d'exposition au risque supposé à l'origine de la maladie et la constatation de celle-ci, pour que l'origine professionnelle soit reconnue. Il peut être de quelques jours (7 jours pour les manifestations cutanées allergiques) ou de plusieurs dizaines d'années pour certaines pathologies qui se déclarent tardivement après l'exposition au risque (30, 40 ou 50 ans pour certains cancers professionnels).
+Dans certains cas, il est prévu une durée minimale d'exposition au risque (en général 5 ans) pour que joue la présomption d'origine. Par exemple, pour un salarié qui présente un cancer bronchique et qui a été exposé 5 ans à l'amiante verra sa maladie automatiquement reconnue comme professionnelle. Dans le cas contraire, le dossier sera rejeté au premier examen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présomption d'imputabilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des travaux susceptibles de provoquer ces maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la troisième colonne du tableau sont mentionnées les activités professionnelles qui peuvent exposer aux agents chimiques, physiques ou biologiques en cause dans l'affection mentionnée.
+Le plus souvent il s'agit d'une liste indicative qui n'est pas opposable au salarié, mais dans certaines pathologies particulières la liste est limitative, auquel cas le dossier est rejeté si l'activité professionnelle du salarié n'est pas expressément mentionnée au tableau.
+Si ces critères très restrictifs ne sont pas respectés ou si la maladie n'est pas inscrite à un tableau, la reconnaissance du caractère professionnel de la maladie sera subordonnée à l'avis d'un Comité Régional de Reconnaissance des Maladies Professionnelles (CRRMP).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Comité régional de reconnaissance des maladies professionnelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est composé du médecin-conseil régional de la sécurité sociale (ou d'un médecin-conseil qu'il désigne pour le représenter), du médecin-inspecteur régional du travail (ou d'un médecin inspecteur qu'il désigne pour le représenter) et d'un praticien qualifié. Pour les salariés du régime agricole, un médecin-conseil du régime agricole se substitue au médecin-conseil régional de la Sécurité sociale dans la composition du CRRMP.
 Ce comité est compétent pour statuer dans deux circonstances :
@@ -602,31 +725,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tableaux_de_maladies_professionnelles</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Recours judiciaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'existence des tableaux interdit à la victime d'assigner son employeur devant les tribunaux pour obtenir une indemnisation plus favorable, sauf en cas de faute inexcusable de l'employeur.
 Pour les salariés victimes d'une exposition à l'amiante, la jurisprudence actuelle évolue vers la condamnation quasi systématique de l'employeur dans le cadre d'une plainte en faute inexcusable.
@@ -634,33 +759,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tableaux_de_maladies_professionnelles</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Liste des tableaux de maladies professionnelles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Risques chimiques
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Risques chimiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Plomb
 Mercure
 Tétrachloréthane
@@ -693,7 +824,43 @@
 Sélénium
 Solvants
 Halothane
-Allergie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des tableaux de maladies professionnelles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Allergie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Lésions cutanées allergiques
 Affections respiratoires allergiques
 Ciments
@@ -715,7 +882,43 @@
 Furfural
 Méthacrylate de méthyle
 Latex
-Cancers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des tableaux de maladies professionnelles</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cancers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Benzène
 Rayonnements ionisants
 Chrome cancers
@@ -732,7 +935,43 @@
 Carbures métalliques cancers
 Bis-chlorométhyl-éther
 Nitrosoguanidine
-Risques physiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des tableaux de maladies professionnelles</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Risques physiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rayonnements ionisants
 Hyperbare
 Surdité bruit
@@ -741,7 +980,43 @@
 Rayonnement thermique
 Barotraumatismes
 Hernie discale vibrations
-Risques biologiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des tableaux de maladies professionnelles</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Risques biologiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tétanos
 Charbon
 Spirochétoses
@@ -762,7 +1037,43 @@
 Rouget du porc
 Streptococcus suis
 Hantavirus
-Fibres et poussières, mines et carrières
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des tableaux de maladies professionnelles</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fibres et poussières, mines et carrières</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Silicose
 Asbestose
 Béryllium
@@ -777,8 +1088,43 @@
 Mines de charbon
 Mines de charbon conjonctivites
 Mines de fer bronchopneumopathies
-Gestes et postures, divers
-Depuis le 10 juin 2016, les pathologies psychiques peuvent être plus facilement reconnues comme des maladies professionnelles. Toutes les affections psychiques sont concernées et notamment le syndrome d'épuisement professionnel, communément appelé « burn-out ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tableaux_de_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des tableaux de maladies professionnelles</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gestes et postures, divers</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Depuis le 10 juin 2016, les pathologies psychiques peuvent être plus facilement reconnues comme des maladies professionnelles. Toutes les affections psychiques sont concernées et notamment le syndrome d'épuisement professionnel, communément appelé « burn-out ».
 TMS
 Ménisques
 Nystagmus
